--- a/trend_results/Rivers/MangahaoatBallance_aec49d7a33.xlsx
+++ b/trend_results/Rivers/MangahaoatBallance_aec49d7a33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.232306385272399</v>
+        <v>0.767693614727601</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.7500282081501231</v>
+        <v>0.249971791849877</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.244826481996876</v>
+        <v>0.755173518003124</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.987093559100663</v>
+        <v>0.012906440899337</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2904,46 +2904,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.40324797025367</v>
+        <v>0.413735137786376</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0775193798449612</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.589147286821705</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>0.444</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0103856545467614</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.063496746974759</v>
+        <v>-0.0456043040038623</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0117918489799296</v>
+        <v>0.0478614512592301</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.33911138440572</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2981,7 +2981,11 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2991,14 +2995,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3006,31 +3010,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.768783636774762</v>
+        <v>0.999623575124871</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.785276073619632</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>102.5</v>
+        <v>10.23</v>
       </c>
       <c r="K29" t="n">
-        <v>1.53284334571825</v>
+        <v>0.0497730079292862</v>
       </c>
       <c r="L29" t="n">
-        <v>-3.9141567093529</v>
+        <v>0.0239869170813557</v>
       </c>
       <c r="M29" t="n">
-        <v>5.32008237116434</v>
+        <v>0.07312747065594399</v>
       </c>
       <c r="N29" t="n">
-        <v>1.49545692265195</v>
+        <v>0.486539666952945</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3039,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3068,7 +3072,11 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3078,46 +3086,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.59675202974633</v>
+        <v>0.177859286633201</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.301204819277108</v>
       </c>
       <c r="H30" t="n">
+        <v>0.0662650602409639</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>4.98</v>
+        <v>0.006</v>
       </c>
       <c r="K30" t="n">
-        <v>0.419215508806263</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.80486190272514</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03618715985818</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>8.41798210454342</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3126,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3155,7 +3163,11 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3180,31 +3192,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0100223343113141</v>
+        <v>1.88062193425555e-06</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0060240963855421</v>
       </c>
       <c r="H31" t="n">
+        <v>0.728915662650602</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>0.4865</v>
+        <v>190</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0168514452473596</v>
+        <v>16.0582332058984</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0325583392434882</v>
+        <v>9.94404698701438</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0068596759929165</v>
+        <v>23.4914937751731</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.4638119727358</v>
+        <v>8.45170168731496</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3213,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3242,7 +3254,11 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3252,46 +3268,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.105248850027669</v>
+        <v>0.995754334238026</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.828025477707006</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.210191082802548</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>103.5</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>-1.51242236024845</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-3.66469834754909</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.253993444689379</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.46127764275212</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3300,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3329,7 +3345,11 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3339,46 +3359,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.360257393568128</v>
+        <v>0.193558246470237</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.102564102564103</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>6.07</v>
+        <v>0.0025</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0337257617728532</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.362051745839349</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.204888643804492</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.555613867757054</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3387,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3416,7 +3436,1162 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.130661827662239</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0384615384615385</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.846153846153846</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.1555</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0015958492626979</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0009763364935683</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0044349900721559</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.02626962231381</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.07305672239395899</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.636942675159236</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.009974967929115799</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0242552984052476</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0004431797427947</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.130905090933278</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Very unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.538393121491893</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7650602409638551</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1745</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0028839574944996</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0021182150825079</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.724240221699353</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.530120481927711</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0009974057891861999</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0049918034927315</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0012873157910197</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.321743802963302</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.469336322887266</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0301204819277108</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.301204819277108</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0001983417419225</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0002998768472906</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.774678995831562</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.927710843373494</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0282495450409463</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0741731591509277</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0272366516089657</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.3950392612813</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0103856545467614</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.063496746974759</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0117918489799296</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-2.33911138440572</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.53284334571825</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-3.9141567093529</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5.32008237116434</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.49545692265195</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.419215508806263</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-1.80486190272514</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.03618715985818</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8.41798210454342</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0100223343113141</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.4865</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0168514452473596</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0325583392434882</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.0068596759929165</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-3.4638119727358</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.105248850027669</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-1.51242236024845</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-3.66469834754909</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.253993444689379</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.46127764275212</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0337257617728532</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.362051745839349</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.204888643804492</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.555613867757054</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mangahao at Ballance</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>15</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.044599291324011</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>106</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.18716143011918</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-2.04623232269718</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.121027317491772</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.11996361331998</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1836693</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5520093</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Upper Gorge</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_9d</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangahaoatBallance_aec49d7a33.xlsx
+++ b/trend_results/Rivers/MangahaoatBallance_aec49d7a33.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.812173696010936</v>
+        <v>0.9118575171407159</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.764705882352941</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0828231292517007</v>
+        <v>0.113935702434758</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0644891068653589</v>
+        <v>-0.0288399291955686</v>
       </c>
       <c r="M2" t="n">
-        <v>0.372198274880287</v>
+        <v>0.340390581953977</v>
       </c>
       <c r="N2" t="n">
-        <v>4.60128495842782</v>
+        <v>6.15868661809505</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.767693614727601</v>
+        <v>0.716149527868994</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.879310344827586</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.5</v>
+        <v>10.54</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0274624060150375</v>
+        <v>0.0535015902464879</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.07232493591477181</v>
+        <v>-0.0724356918088722</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0996376355750743</v>
+        <v>0.162692722052177</v>
       </c>
       <c r="N3" t="n">
-        <v>0.261546723952738</v>
+        <v>0.507605220554914</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.111070616153141</v>
+        <v>0.755576900122706</v>
       </c>
       <c r="G4" t="n">
-        <v>0.310344827586207</v>
+        <v>0.327586206896552</v>
       </c>
       <c r="H4" t="n">
         <v>0.120689655172414</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.0003977695844815</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0004814105315461</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0417214347742059</v>
+        <v>0.690214336755671</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.827586206896552</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>347.5</v>
       </c>
       <c r="K5" t="n">
-        <v>54.5775862068965</v>
+        <v>-16.5801068090788</v>
       </c>
       <c r="L5" t="n">
-        <v>1.04557585999896</v>
+        <v>-66.9491808912491</v>
       </c>
       <c r="M5" t="n">
-        <v>145.135363890365</v>
+        <v>38.7623990680895</v>
       </c>
       <c r="N5" t="n">
-        <v>15.7057802034235</v>
+        <v>-4.77125375800828</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,24 +933,36 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.026876392889426</v>
+      </c>
       <c r="G6" t="n">
-        <v>0.944444444444444</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="H6" t="n">
-        <v>0.148148148148148</v>
+        <v>0.127272727272727</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -958,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1016,25 +1028,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.619434852830653</v>
+        <v>0.999820534475956</v>
       </c>
       <c r="G7" t="n">
-        <v>0.482758620689655</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="H7" t="n">
-        <v>0.137931034482759</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0004943144479809</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1049,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.41294699761489</v>
+        <v>0.643047930896264</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.879310344827586</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.122</v>
+        <v>0.1185</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0016723901098901</v>
+        <v>-0.0040396313364055</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01175664122645</v>
+        <v>-0.0163666647309797</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0100043554057045</v>
+        <v>0.0048717433993765</v>
       </c>
       <c r="N8" t="n">
-        <v>1.3708115654837</v>
+        <v>-3.4089715919034</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1198,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.249971791849877</v>
+        <v>0.411044285784933</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.807017543859649</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.61</v>
+        <v>7.59</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0351201923076924</v>
+        <v>-0.0350720164609046</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0602060439560437</v>
+        <v>-0.0633671439827771</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0289365547063945</v>
+        <v>0.0308181753269289</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.461500555948652</v>
+        <v>-0.462081903305726</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1285,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.441860247629198</v>
+        <v>0.669583528345139</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.879310344827586</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1305</v>
+        <v>0.1235</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0020068681318681</v>
+        <v>-0.0045154532967033</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0107834217764746</v>
+        <v>-0.0168101222031699</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0125052746857712</v>
+        <v>0.0039539392122155</v>
       </c>
       <c r="N10" t="n">
-        <v>1.53782998610583</v>
+        <v>-3.65623748720915</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1361,43 +1373,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.533384447895386</v>
+        <v>0.558767158356863</v>
       </c>
       <c r="G11" t="n">
-        <v>0.396551724137931</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.379310344827586</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-0.0148555042172971</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1440,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1452,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.187521811779306</v>
+        <v>0.325799156067639</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.620689655172414</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.265</v>
+        <v>0.011</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0100343406593407</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0100104105922028</v>
+        <v>-0.0004566520711547</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02773007044293</v>
+        <v>0.0014364544603355</v>
       </c>
       <c r="N12" t="n">
-        <v>3.78654364503421</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1543,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.154822836072548</v>
+        <v>0.316938269291871</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.568965517241379</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0125</v>
+        <v>1.415</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0007051158301158</v>
+        <v>0.0703531300160514</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0003657808957247</v>
+        <v>-0.117709422774686</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0026089285714285</v>
+        <v>0.470856694284926</v>
       </c>
       <c r="N13" t="n">
-        <v>5.64092664092665</v>
+        <v>4.97195265131105</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1622,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1634,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1649,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.08350008555860421</v>
+        <v>0.469568743490313</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.720430107526882</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.242691029900332</v>
+        <v>0.0050418785322508</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0382096872384306</v>
+        <v>-0.0571207200725595</v>
       </c>
       <c r="M14" t="n">
-        <v>0.687644930726606</v>
+        <v>0.0890910177014398</v>
       </c>
       <c r="N14" t="n">
-        <v>14.8890202392842</v>
+        <v>0.280104362902822</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1740,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.25441071107141</v>
+        <v>0.917673754789162</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0645161290322581</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.731182795698925</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.8</v>
+        <v>10.42</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0055371619176297</v>
+        <v>0.0247248529443923</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.08840329282186341</v>
+        <v>-0.0048513989929813</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07478918237420371</v>
+        <v>0.0600776369523868</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.307620106534986</v>
+        <v>0.237282657815665</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1816,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.974731402910388</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.271186440677966</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0847457627118644</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.755173518003124</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.794871794871795</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.45</v>
+        <v>0.0065</v>
       </c>
       <c r="K16" t="n">
-        <v>0.007996715927750499</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0149556414922657</v>
+        <v>-0.0002608928571428</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0449172592515965</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0765235973947425</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1918,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6647898208558189</v>
+        <v>0.0032471780841057</v>
       </c>
       <c r="G17" t="n">
-        <v>0.26271186440678</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.007</v>
+        <v>233.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>20.8714285714286</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>7.14688781036808</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>37.6124690454372</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>8.93851330682166</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1998,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7.32492352147825e-05</v>
+        <v>0.935782971731442</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.858407079646018</v>
       </c>
       <c r="H18" t="n">
-        <v>0.728813559322034</v>
+        <v>0.194690265486726</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>230</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>29.4340659340659</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>17.0346993729742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>46.4168375924867</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>12.797419971333</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2104,25 +2116,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9960765839404619</v>
+        <v>0.99996857955398</v>
       </c>
       <c r="G19" t="n">
-        <v>0.858407079646018</v>
+        <v>0.406779661016949</v>
       </c>
       <c r="H19" t="n">
-        <v>0.194690265486726</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0002790297937356</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2180,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.997310611416655</v>
+        <v>0.793067471878138</v>
       </c>
       <c r="G20" t="n">
-        <v>0.322033898305085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.135593220338983</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.14975</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.0020671838407494</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0002496582365003</v>
+        <v>-0.0065991463522508</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.001854354351379</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-1.38042326594285</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2286,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0306415375256745</v>
+        <v>0.237011631886057</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.872881355932203</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.14975</v>
+        <v>7.595</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0039062646370023</v>
+        <v>-0.008089720441952501</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0007082945989957999</v>
+        <v>-0.0253843720966905</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0070240384615384</v>
+        <v>0.0110625946491671</v>
       </c>
       <c r="N21" t="n">
-        <v>2.60852396460924</v>
+        <v>-0.106513764871001</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2319,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2348,11 +2360,7 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2362,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2377,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.012906440899337</v>
+        <v>0.82238006618021</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.646551724137931</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.62</v>
+        <v>0.15915</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0235393530150753</v>
+        <v>-0.0028848729395604</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0395905198075209</v>
+        <v>-0.0073850433655949</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0059511500187429</v>
+        <v>0.0010925978843228</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.308915393898627</v>
+        <v>-1.81267542542283</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2439,7 +2447,11 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2449,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2464,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0405881563401743</v>
+        <v>0.954849997129523</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.754237288135593</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.159</v>
+        <v>0.305</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0038277716492002</v>
+        <v>-0.0051978653530377</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0111297318270337</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0071419754631767</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.40740355295611</v>
+        <v>-1.70421814853697</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2497,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2551,32 +2563,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.411373434021675</v>
+        <v>0.326248838287347</v>
       </c>
       <c r="G24" t="n">
-        <v>0.254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.26271186440678</v>
+        <v>0.364406779661017</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0.0125</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.0001811729183236</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0857679408337856</v>
+        <v>0.0004276915382142</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2588,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2619,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2631,14 +2643,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2646,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.229333057196329</v>
+        <v>0.423457156804768</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.601694915254237</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.305</v>
+        <v>2.025</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0017107728337236</v>
+        <v>0.0089194139194139</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0030041802892715</v>
+        <v>-0.0688093789499987</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0067514545044607</v>
+        <v>0.108705357142857</v>
       </c>
       <c r="N25" t="n">
-        <v>0.560909125811034</v>
+        <v>0.44046488490933</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2710,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2722,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2737,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.06539091208559621</v>
+        <v>0.5</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.072463768115942</v>
       </c>
       <c r="H26" t="n">
-        <v>0.338983050847458</v>
+        <v>0.579710144927536</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0125</v>
+        <v>1.75</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002964691558441</v>
+        <v>0.0026089285714285</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.0333704559048322</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0007643218639998</v>
+        <v>0.0521785714285714</v>
       </c>
       <c r="N26" t="n">
-        <v>2.37175324675325</v>
+        <v>0.149081632653061</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2828,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.160308301095704</v>
+        <v>0.999902657087641</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.932203389830508</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.875</v>
+        <v>10.24</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0551320754716981</v>
+        <v>0.0475706419916505</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0296610776517695</v>
+        <v>0.025771131418562</v>
       </c>
       <c r="M27" t="n">
-        <v>0.180454993093818</v>
+        <v>0.0698399988843678</v>
       </c>
       <c r="N27" t="n">
-        <v>2.94037735849057</v>
+        <v>0.464557050699712</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2919,28 +2931,28 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.413735137786376</v>
+        <v>0.486159516980103</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0775193798449612</v>
+        <v>0.308988764044944</v>
       </c>
       <c r="H28" t="n">
-        <v>0.589147286821705</v>
+        <v>0.0617977528089888</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.7</v>
+        <v>0.006</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0456043040038623</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0478614512592301</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2983,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2995,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3010,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.999623575124871</v>
+        <v>2.16654859597947e-05</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H29" t="n">
-        <v>0.785276073619632</v>
+        <v>0.730337078651685</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.23</v>
+        <v>188</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0497730079292862</v>
+        <v>13.5684239278886</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0239869170813557</v>
+        <v>6.96453949639533</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07312747065594399</v>
+        <v>19.7820353189663</v>
       </c>
       <c r="N29" t="n">
-        <v>0.486539666952945</v>
+        <v>7.21724677015349</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3101,19 +3113,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.177859286633201</v>
+        <v>0.982262230177392</v>
       </c>
       <c r="G30" t="n">
-        <v>0.301204819277108</v>
+        <v>0.822485207100592</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0662650602409639</v>
+        <v>0.21301775147929</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3134,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.88062193425555e-06</v>
+        <v>0.715849832468775</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0060240963855421</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.728915662650602</v>
+        <v>0.09523809523809521</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>190</v>
+        <v>0.00225</v>
       </c>
       <c r="K31" t="n">
-        <v>16.0582332058984</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>9.94404698701438</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>23.4914937751731</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>8.45170168731496</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.995754334238026</v>
+        <v>0.400485376263431</v>
       </c>
       <c r="G32" t="n">
-        <v>0.828025477707006</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="H32" t="n">
-        <v>0.210191082802548</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.1535</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.000334478021978</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0021578662018966</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0023997793829806</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.217900991516627</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.193558246470237</v>
+        <v>0.112529631985974</v>
       </c>
       <c r="G33" t="n">
-        <v>0.461538461538462</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.102564102564103</v>
+        <v>0.633136094674556</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0025</v>
+        <v>7.62</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-0.008862602365787</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0186033852843216</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0028542313544434</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>-0.116307117661248</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,11 +3448,7 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3450,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3465,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.130661827662239</v>
+        <v>0.81185982451797</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0384615384615385</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.846153846153846</v>
+        <v>0.848314606741573</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1555</v>
+        <v>0.17</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0015958492626979</v>
+        <v>-0.0009384635149023</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0009763364935683</v>
+        <v>-0.0038785504622344</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0044349900721559</v>
+        <v>0.0008206394041255</v>
       </c>
       <c r="N34" t="n">
-        <v>1.02626962231381</v>
+        <v>-0.552037361707273</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3556,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.07305672239395899</v>
+        <v>0.936517476909255</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.636942675159236</v>
+        <v>0.5</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.62</v>
+        <v>0.305</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.009974967929115799</v>
+        <v>-0.0028590998043052</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0242552984052476</v>
+        <v>-0.0056120272658757</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0004431797427947</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.130905090933278</v>
+        <v>-0.937409771903373</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3618,7 +3626,11 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3628,43 +3640,43 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.538393121491893</v>
+        <v>0.665409155668119</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.0280898876404494</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7650602409638551</v>
+        <v>0.297752808988764</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1745</v>
+        <v>0.013</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0028839574944996</v>
+        <v>-0.0002304125593767</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0021182150825079</v>
+        <v>0.0001736639244331</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3719,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3734,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.724240221699353</v>
+        <v>0.906427391834393</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.530120481927711</v>
+        <v>0.921348314606742</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.31</v>
+        <v>2.005</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0009974057891861999</v>
+        <v>-0.036046755911667</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0049918034927315</v>
+        <v>-0.07600118471338339</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0012873157910197</v>
+        <v>0.0073480287644049</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.321743802963302</v>
+        <v>-1.79784318761431</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3767,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3798,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3810,46 +3822,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.469336322887266</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0301204819277108</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.301204819277108</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.013</v>
+        <v>0.438</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-0.0433077138488265</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0001983417419225</v>
+        <v>-0.113726399036592</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0002998768472906</v>
+        <v>-0.0072866342345824</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>-9.88760590155856</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3858,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3887,11 +3899,7 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,46 +3909,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.774678995831562</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.927710843373494</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.025</v>
+        <v>102.5</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0282495450409463</v>
+        <v>0.08699006054704039</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0741731591509277</v>
+        <v>-6.91368217681097</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0272366516089657</v>
+        <v>5.32008237116434</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.3950392612813</v>
+        <v>0.0848683517532101</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3957,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3978,11 +3986,7 @@
           <t>Mana_9d</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3992,7 +3996,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4007,7 +4011,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.40324797025367</v>
+        <v>0.5</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4019,19 +4023,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.444</v>
+        <v>5.647</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0103856545467614</v>
+        <v>-0.0443716251317294</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.063496746974759</v>
+        <v>-1.80486190272514</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0117918489799296</v>
+        <v>1.05817498841949</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.33911138440572</v>
+        <v>-0.785755713329722</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4079,11 +4083,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4094,7 +4098,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.768783636774762</v>
+        <v>0.002103775642746</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4106,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>102.5</v>
+        <v>0.4675</v>
       </c>
       <c r="K41" t="n">
-        <v>1.53284334571825</v>
+        <v>-0.02922</v>
       </c>
       <c r="L41" t="n">
-        <v>-3.9141567093529</v>
+        <v>-0.0407293231721627</v>
       </c>
       <c r="M41" t="n">
-        <v>5.32008237116434</v>
+        <v>-0.0171856414592048</v>
       </c>
       <c r="N41" t="n">
-        <v>1.49545692265195</v>
+        <v>-6.25026737967915</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4127,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4166,11 +4170,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4181,7 +4185,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.59675202974633</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4193,19 +4197,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.98</v>
+        <v>102.75</v>
       </c>
       <c r="K42" t="n">
-        <v>0.419215508806263</v>
+        <v>-0.757780082987552</v>
       </c>
       <c r="L42" t="n">
-        <v>-1.80486190272514</v>
+        <v>-2.03105982726799</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03618715985818</v>
+        <v>0.428242731890745</v>
       </c>
       <c r="N42" t="n">
-        <v>8.41798210454342</v>
+        <v>-0.737498864221462</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4214,7 +4218,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4253,7 +4257,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4268,7 +4272,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.0100223343113141</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4280,19 +4284,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4865</v>
+        <v>6.07</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0168514452473596</v>
+        <v>-0.0894688571428571</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0325583392434882</v>
+        <v>-0.368122625455195</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0068596759929165</v>
+        <v>0.127086325277498</v>
       </c>
       <c r="N43" t="n">
-        <v>-3.4638119727358</v>
+        <v>-1.47395151800424</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4301,7 +4305,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4340,11 +4344,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4355,7 +4359,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.105248850027669</v>
+        <v>0.136780705862374</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4367,19 +4371,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>103.5</v>
+        <v>0.4655</v>
       </c>
       <c r="K44" t="n">
-        <v>-1.51242236024845</v>
+        <v>-0.0068662310866574</v>
       </c>
       <c r="L44" t="n">
-        <v>-3.66469834754909</v>
+        <v>-0.0212401215453144</v>
       </c>
       <c r="M44" t="n">
-        <v>0.253993444689379</v>
+        <v>0.0035060076257653</v>
       </c>
       <c r="N44" t="n">
-        <v>-1.46127764275212</v>
+        <v>-1.47502278982975</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4427,11 +4431,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4442,31 +4446,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.360257393568128</v>
+        <v>0.0165627624156039</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.07</v>
+        <v>104</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0337257617728532</v>
+        <v>-1.15439317319848</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.362051745839349</v>
+        <v>-1.88532001891786</v>
       </c>
       <c r="M45" t="n">
-        <v>0.204888643804492</v>
+        <v>-0.239783240874967</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.555613867757054</v>
+        <v>-1.10999343576777</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4475,7 +4479,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4514,7 +4518,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4529,7 +4533,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.044599291324011</v>
+        <v>0.12479016573954</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4541,19 +4545,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>106</v>
+        <v>6.215</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.18716143011918</v>
+        <v>-0.0573794691224269</v>
       </c>
       <c r="L46" t="n">
-        <v>-2.04623232269718</v>
+        <v>-0.205386033898715</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.121027317491772</v>
+        <v>0.0407622711529045</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.11996361331998</v>
+        <v>-0.923241659250634</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4562,7 +4566,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">

--- a/trend_results/Rivers/MangahaoatBallance_aec49d7a33.xlsx
+++ b/trend_results/Rivers/MangahaoatBallance_aec49d7a33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -136,55 +136,55 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>Virtually certain increasing</t>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,31 +663,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.9118575171407159</v>
+        <v>0.746528102156203</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.666666666666667</v>
+        <v>0.673913043478261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="K2">
-        <v>0.113935702434758</v>
+        <v>0.0561059907834101</v>
       </c>
       <c r="L2">
-        <v>-0.0288399291955686</v>
+        <v>-0.103066262100445</v>
       </c>
       <c r="M2">
-        <v>0.340390581953977</v>
+        <v>0.27715649648669</v>
       </c>
       <c r="N2">
-        <v>6.15868661809505</v>
+        <v>2.87723029658513</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -728,37 +728,37 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.716149527868994</v>
+        <v>0.72073217276769</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.8947368421052631</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.54</v>
+        <v>10.675</v>
       </c>
       <c r="K3">
-        <v>0.0535015902464879</v>
+        <v>0.0472091836734693</v>
       </c>
       <c r="L3">
-        <v>-0.0724356918088722</v>
+        <v>-0.0628647384710735</v>
       </c>
       <c r="M3">
-        <v>0.162692722052177</v>
+        <v>0.08557922313768331</v>
       </c>
       <c r="N3">
-        <v>0.507605220554914</v>
+        <v>0.44224059647278</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -805,28 +805,28 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.755576900122706</v>
+        <v>0.5210747896439401</v>
       </c>
       <c r="G4">
-        <v>0.327586206896552</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.120689655172414</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.0003977695844815</v>
+        <v>-0.000410820452225</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0002931204699713</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -876,37 +876,37 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.690214336755671</v>
+        <v>0.999315578407336</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.896551724137931</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>347.5</v>
+        <v>300</v>
       </c>
       <c r="K5">
-        <v>-16.5801068090788</v>
+        <v>-104.231411359725</v>
       </c>
       <c r="L5">
-        <v>-66.9491808912491</v>
+        <v>-177.274444886019</v>
       </c>
       <c r="M5">
-        <v>38.7623990680895</v>
+        <v>-41.0069264052936</v>
       </c>
       <c r="N5">
-        <v>-4.77125375800828</v>
+        <v>-34.7438037865749</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>1836693</v>
@@ -947,16 +947,16 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.026876392889426</v>
+        <v>0.0039137806987135</v>
       </c>
       <c r="G6">
-        <v>0.9090909090909089</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="H6">
-        <v>0.127272727272727</v>
+        <v>0.196428571428571</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -977,7 +977,7 @@
         <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1836693</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.999820534475956</v>
+        <v>0.999987957868161</v>
       </c>
       <c r="G7">
-        <v>0.551724137931034</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="H7">
-        <v>0.120689655172414</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0004943144479809</v>
+        <v>-0.0002851354643711</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q7">
         <v>1836693</v>
@@ -1089,37 +1089,37 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.643047930896264</v>
+        <v>0.718658072402694</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.896551724137931</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1185</v>
+        <v>0.116</v>
       </c>
       <c r="K8">
-        <v>-0.0040396313364055</v>
+        <v>-0.0037628777472527</v>
       </c>
       <c r="L8">
-        <v>-0.0163666647309797</v>
+        <v>-0.0154689469751357</v>
       </c>
       <c r="M8">
-        <v>0.0048717433993765</v>
+        <v>0.0040882696702362</v>
       </c>
       <c r="N8">
-        <v>-3.4089715919034</v>
+        <v>-3.24386012694202</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1836693</v>
@@ -1160,37 +1160,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.411044285784933</v>
+        <v>0.616266013019638</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.87719298245614</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.59</v>
+        <v>7.615</v>
       </c>
       <c r="K9">
-        <v>-0.0350720164609046</v>
+        <v>0.0100343406593404</v>
       </c>
       <c r="L9">
-        <v>-0.0633671439827771</v>
+        <v>-0.0359533136747032</v>
       </c>
       <c r="M9">
-        <v>0.0308181753269289</v>
+        <v>0.0657301749131694</v>
       </c>
       <c r="N9">
-        <v>-0.462081903305726</v>
+        <v>0.131770724351155</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1836693</v>
@@ -1228,37 +1228,37 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.669583528345139</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.948275862068966</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1235</v>
+        <v>0.121</v>
       </c>
       <c r="K10">
-        <v>-0.0045154532967033</v>
+        <v>8.37524210245109E-05</v>
       </c>
       <c r="L10">
-        <v>-0.0168101222031699</v>
+        <v>-0.0157518478671401</v>
       </c>
       <c r="M10">
-        <v>0.0039539392122155</v>
+        <v>0.0079553551619021</v>
       </c>
       <c r="N10">
-        <v>-3.65623748720915</v>
+        <v>0.06921687687976109</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <v>1836693</v>
@@ -1296,40 +1296,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11">
-        <v>0.558767158356863</v>
+        <v>0.847030729730559</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.620689655172414</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="L11">
-        <v>-0.0148555042172971</v>
+        <v>-0.0200686813186813</v>
       </c>
       <c r="M11">
-        <v>0.0100343406593407</v>
+        <v>0.0075347909236709</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>-2.09048763736264</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1836693</v>
@@ -1367,16 +1367,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>0.325799156067639</v>
+        <v>0.91082491675545</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.5344827586206899</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0.011</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0.0005997536945812</v>
       </c>
       <c r="L12">
-        <v>-0.0004566520711547</v>
+        <v>-0.0023111728861788</v>
       </c>
       <c r="M12">
-        <v>0.0014364544603355</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-5.45230631437528</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q12">
         <v>1836693</v>
@@ -1435,43 +1435,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.316938269291871</v>
+        <v>0.890064144685649</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.982758620689655</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.415</v>
+        <v>1.72</v>
       </c>
       <c r="K13">
-        <v>0.0703531300160514</v>
+        <v>-0.123362737978582</v>
       </c>
       <c r="L13">
-        <v>-0.117709422774686</v>
+        <v>-0.317023155794422</v>
       </c>
       <c r="M13">
-        <v>0.470856694284926</v>
+        <v>0.0370462841665292</v>
       </c>
       <c r="N13">
-        <v>4.97195265131105</v>
+        <v>-7.17225220805709</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q13">
         <v>1836693</v>
@@ -1512,37 +1512,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.469568743490313</v>
+        <v>0.824849564516651</v>
       </c>
       <c r="G14">
-        <v>0.032258064516129</v>
+        <v>0.0104166666666667</v>
       </c>
       <c r="H14">
-        <v>0.720430107526882</v>
+        <v>0.697916666666667</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K14">
-        <v>0.0050418785322508</v>
+        <v>0.0356499556344277</v>
       </c>
       <c r="L14">
-        <v>-0.0571207200725595</v>
+        <v>-0.0264596869189398</v>
       </c>
       <c r="M14">
-        <v>0.0890910177014398</v>
+        <v>0.124529147797246</v>
       </c>
       <c r="N14">
-        <v>0.280104362902822</v>
+        <v>2.03714032196729</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q14">
         <v>1836693</v>
@@ -1583,37 +1583,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.917673754789162</v>
+        <v>0.986261102631211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.810344827586207</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.42</v>
+        <v>10.45</v>
       </c>
       <c r="K15">
-        <v>0.0247248529443923</v>
+        <v>0.0411410389699976</v>
       </c>
       <c r="L15">
-        <v>-0.0048513989929813</v>
+        <v>0.0066469517743401</v>
       </c>
       <c r="M15">
-        <v>0.0600776369523868</v>
+        <v>0.06687954236880091</v>
       </c>
       <c r="N15">
-        <v>0.237282657815665</v>
+        <v>0.393694152822944</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q15">
         <v>1836693</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>0.974731402910388</v>
+        <v>0.998389413113428</v>
       </c>
       <c r="G16">
-        <v>0.271186440677966</v>
+        <v>0.296610169491525</v>
       </c>
       <c r="H16">
         <v>0.0847457627118644</v>
@@ -1666,25 +1666,25 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.0065</v>
+        <v>0.006</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-0.0001516818936877</v>
       </c>
       <c r="L16">
-        <v>-0.0002608928571428</v>
+        <v>-0.0003781055900621</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-2.52803156146179</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>1836693</v>
@@ -1725,37 +1725,37 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.0032471780841057</v>
+        <v>0.16929425118159</v>
       </c>
       <c r="G17">
-        <v>0.008474576271186401</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H17">
-        <v>0.728813559322034</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>233.5</v>
+        <v>231.6</v>
       </c>
       <c r="K17">
-        <v>20.8714285714286</v>
+        <v>5.85876411148564</v>
       </c>
       <c r="L17">
-        <v>7.14688781036808</v>
+        <v>-4.74350649350649</v>
       </c>
       <c r="M17">
-        <v>37.6124690454372</v>
+        <v>19.4200280922095</v>
       </c>
       <c r="N17">
-        <v>8.93851330682166</v>
+        <v>2.52969089442385</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q17">
         <v>1836693</v>
@@ -1793,16 +1793,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>0.935782971731442</v>
+        <v>0.217193239372643</v>
       </c>
       <c r="G18">
-        <v>0.858407079646018</v>
+        <v>0.850877192982456</v>
       </c>
       <c r="H18">
-        <v>0.194690265486726</v>
+        <v>0.201754385964912</v>
       </c>
       <c r="I18">
         <v>7</v>
@@ -1826,7 +1826,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q18">
         <v>1836693</v>
@@ -1864,16 +1864,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F19">
-        <v>0.99996857955398</v>
+        <v>0.999999998939759</v>
       </c>
       <c r="G19">
-        <v>0.406779661016949</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="H19">
-        <v>0.135593220338983</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1882,22 +1882,22 @@
         <v>0.002</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.0003152783772119</v>
       </c>
       <c r="L19">
-        <v>-0.0002790297937356</v>
+        <v>-0.0004454702841428</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-15.7639188605956</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q19">
         <v>1836693</v>
@@ -1938,37 +1938,37 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.793067471878138</v>
+        <v>0.998782152756954</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.847457627118644</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.14975</v>
+        <v>0.129</v>
       </c>
       <c r="K20">
-        <v>-0.0020671838407494</v>
+        <v>-0.0069792993630573</v>
       </c>
       <c r="L20">
-        <v>-0.0065991463522508</v>
+        <v>-0.0117330113325125</v>
       </c>
       <c r="M20">
-        <v>0.001854354351379</v>
+        <v>-0.0029604058961173</v>
       </c>
       <c r="N20">
-        <v>-1.38042326594285</v>
+        <v>-5.41030958376537</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q20">
         <v>1836693</v>
@@ -2003,43 +2003,43 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.237011631886057</v>
+        <v>0.6155627709453581</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.672413793103448</v>
+        <v>0.675213675213675</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.595</v>
+        <v>7.59</v>
       </c>
       <c r="K21">
-        <v>-0.008089720441952501</v>
+        <v>0.0026719796008588</v>
       </c>
       <c r="L21">
-        <v>-0.0253843720966905</v>
+        <v>-0.0186945072091542</v>
       </c>
       <c r="M21">
-        <v>0.0110625946491671</v>
+        <v>0.0199809429949799</v>
       </c>
       <c r="N21">
-        <v>-0.106513764871001</v>
+        <v>0.0352039473103933</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1836693</v>
@@ -2077,7 +2077,7 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.82238006618021</v>
+        <v>0.99951948043459</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2089,25 +2089,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.15915</v>
+        <v>0.1465</v>
       </c>
       <c r="K22">
-        <v>-0.0028848729395604</v>
+        <v>-0.0074897470950102</v>
       </c>
       <c r="L22">
-        <v>-0.0073850433655949</v>
+        <v>-0.0119146144498661</v>
       </c>
       <c r="M22">
-        <v>0.0010925978843228</v>
+        <v>-0.0039064433277778</v>
       </c>
       <c r="N22">
-        <v>-1.81267542542283</v>
+        <v>-5.1124553549558</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1836693</v>
@@ -2148,37 +2148,37 @@
         <v>39</v>
       </c>
       <c r="F23">
-        <v>0.954849997129523</v>
+        <v>0.999453866011818</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.542372881355932</v>
+        <v>0.457627118644068</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.305</v>
+        <v>0.285</v>
       </c>
       <c r="K23">
-        <v>-0.0051978653530377</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="L23">
-        <v>-0.0111297318270337</v>
+        <v>-0.0166959494009977</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-0.0057845576975024</v>
       </c>
       <c r="N23">
-        <v>-1.70421814853697</v>
+        <v>-3.52082128397918</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q23">
         <v>1836693</v>
@@ -2216,40 +2216,40 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>0.326248838287347</v>
+        <v>0.969134838719061</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.364406779661017</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0125</v>
+        <v>0.013</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-0.0003240905057675</v>
       </c>
       <c r="L24">
-        <v>-0.0001811729183236</v>
+        <v>-0.0006811823946288</v>
       </c>
       <c r="M24">
-        <v>0.0004276915382142</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>-2.49300389051942</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q24">
         <v>1836693</v>
@@ -2284,43 +2284,43 @@
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.423457156804768</v>
+        <v>0.691747542808956</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.915254237288136</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="K25">
-        <v>0.0089194139194139</v>
+        <v>-0.0134654377880184</v>
       </c>
       <c r="L25">
-        <v>-0.0688093789499987</v>
+        <v>-0.09258221372358549</v>
       </c>
       <c r="M25">
-        <v>0.108705357142857</v>
+        <v>0.0500763700789133</v>
       </c>
       <c r="N25">
-        <v>0.44046488490933</v>
+        <v>-0.6817943183806811</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q25">
         <v>1836693</v>
@@ -2361,37 +2361,37 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
+        <v>0.472990758537401</v>
       </c>
       <c r="G26">
-        <v>0.072463768115942</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H26">
-        <v>0.579710144927536</v>
+        <v>0.580882352941177</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="K26">
-        <v>0.0026089285714285</v>
+        <v>0.0058276834162603</v>
       </c>
       <c r="L26">
-        <v>-0.0333704559048322</v>
+        <v>-0.0310566890770249</v>
       </c>
       <c r="M26">
-        <v>0.0521785714285714</v>
+        <v>0.0557125052797509</v>
       </c>
       <c r="N26">
-        <v>0.149081632653061</v>
+        <v>0.342804906838842</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q26">
         <v>1836693</v>
@@ -2432,37 +2432,37 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.999902657087641</v>
+        <v>0.999998081387894</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.775862068965517</v>
+        <v>0.7471264367816089</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.24</v>
+        <v>10.29</v>
       </c>
       <c r="K27">
-        <v>0.0475706419916505</v>
+        <v>0.0553443643970701</v>
       </c>
       <c r="L27">
-        <v>0.025771131418562</v>
+        <v>0.0357489298129103</v>
       </c>
       <c r="M27">
-        <v>0.0698399988843678</v>
+        <v>0.0743069787297624</v>
       </c>
       <c r="N27">
-        <v>0.464557050699712</v>
+        <v>0.53784610687143</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q27">
         <v>1836693</v>
@@ -2500,16 +2500,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F28">
-        <v>0.486159516980103</v>
+        <v>0.735878000992412</v>
       </c>
       <c r="G28">
-        <v>0.308988764044944</v>
+        <v>0.331460674157303</v>
       </c>
       <c r="H28">
-        <v>0.0617977528089888</v>
+        <v>0.0561797752808989</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2533,7 +2533,7 @@
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q28">
         <v>1836693</v>
@@ -2574,37 +2574,37 @@
         <v>39</v>
       </c>
       <c r="F29">
-        <v>2.16654859597947E-05</v>
+        <v>0.0012641438123053</v>
       </c>
       <c r="G29">
-        <v>0.0056179775280898</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H29">
-        <v>0.730337078651685</v>
+        <v>0.755681818181818</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>188</v>
+        <v>184.4</v>
       </c>
       <c r="K29">
-        <v>13.5684239278886</v>
+        <v>8.30868971792539</v>
       </c>
       <c r="L29">
-        <v>6.96453949639533</v>
+        <v>3.46271915827891</v>
       </c>
       <c r="M29">
-        <v>19.7820353189663</v>
+        <v>15.8946430420577</v>
       </c>
       <c r="N29">
-        <v>7.21724677015349</v>
+        <v>4.5057970270745</v>
       </c>
       <c r="O29" t="s">
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q29">
         <v>1836693</v>
@@ -2642,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F30">
-        <v>0.982262230177392</v>
+        <v>0.881384597741067</v>
       </c>
       <c r="G30">
-        <v>0.822485207100592</v>
+        <v>0.804733727810651</v>
       </c>
       <c r="H30">
-        <v>0.21301775147929</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="I30">
         <v>7</v>
@@ -2675,7 +2675,7 @@
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1836693</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F31">
-        <v>0.715849832468775</v>
+        <v>0.950045436519531</v>
       </c>
       <c r="G31">
-        <v>0.5</v>
+        <v>0.51685393258427</v>
       </c>
       <c r="H31">
-        <v>0.09523809523809521</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.00225</v>
+        <v>0.002</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q31">
         <v>1836693</v>
@@ -2787,37 +2787,37 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>0.400485376263431</v>
+        <v>0.534663914029416</v>
       </c>
       <c r="G32">
-        <v>0.0357142857142857</v>
+        <v>0.0337078651685393</v>
       </c>
       <c r="H32">
-        <v>0.839285714285714</v>
+        <v>0.820224719101124</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.1535</v>
+        <v>0.1355</v>
       </c>
       <c r="K32">
-        <v>0.000334478021978</v>
+        <v>-0.0002502569373072</v>
       </c>
       <c r="L32">
-        <v>-0.0021578662018966</v>
+        <v>-0.0022443933463796</v>
       </c>
       <c r="M32">
-        <v>0.0023997793829806</v>
+        <v>0.0015110593195038</v>
       </c>
       <c r="N32">
-        <v>0.217900991516627</v>
+        <v>-0.184691466647452</v>
       </c>
       <c r="O32" t="s">
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q32">
         <v>1836693</v>
@@ -2858,31 +2858,31 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.112529631985974</v>
+        <v>0.213433358462298</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.633136094674556</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.62</v>
+        <v>7.63</v>
       </c>
       <c r="K33">
-        <v>-0.008862602365787</v>
+        <v>-0.0049931647300069</v>
       </c>
       <c r="L33">
-        <v>-0.0186033852843216</v>
+        <v>-0.0166402980298688</v>
       </c>
       <c r="M33">
-        <v>0.0028542313544434</v>
+        <v>0.0058085431833753</v>
       </c>
       <c r="N33">
-        <v>-0.116307117661248</v>
+        <v>-0.0654412153342982</v>
       </c>
       <c r="O33" t="s">
         <v>43</v>
@@ -2926,7 +2926,7 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.81185982451797</v>
+        <v>0.683904901420855</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -2938,25 +2938,25 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.17</v>
+        <v>0.15515</v>
       </c>
       <c r="K34">
-        <v>-0.0009384635149023</v>
+        <v>-0.0004985213830755</v>
       </c>
       <c r="L34">
-        <v>-0.0038785504622344</v>
+        <v>-0.0031222377400619</v>
       </c>
       <c r="M34">
-        <v>0.0008206394041255</v>
+        <v>0.0012687619270418</v>
       </c>
       <c r="N34">
-        <v>-0.552037361707273</v>
+        <v>-0.321315748034498</v>
       </c>
       <c r="O34" t="s">
         <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1836693</v>
@@ -2997,37 +2997,37 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.936517476909255</v>
+        <v>0.9499323568014429</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.5</v>
+        <v>0.47752808988764</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.305</v>
+        <v>0.285</v>
       </c>
       <c r="K35">
-        <v>-0.0028590998043052</v>
+        <v>-0.0025364583333333</v>
       </c>
       <c r="L35">
-        <v>-0.0056120272658757</v>
+        <v>-0.0055521055284053</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>-0.937409771903373</v>
+        <v>-0.88998538011696</v>
       </c>
       <c r="O35" t="s">
         <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q35">
         <v>1836693</v>
@@ -3065,31 +3065,31 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F36">
-        <v>0.665409155668119</v>
+        <v>0.801568686657822</v>
       </c>
       <c r="G36">
         <v>0.0280898876404494</v>
       </c>
       <c r="H36">
-        <v>0.297752808988764</v>
+        <v>0.292134831460674</v>
       </c>
       <c r="I36">
         <v>2</v>
       </c>
       <c r="J36">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>-0.0002304125593767</v>
+        <v>-0.0002393512450851</v>
       </c>
       <c r="M36">
-        <v>0.0001736639244331</v>
+        <v>8.437356266775991E-05</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3098,7 +3098,7 @@
         <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="Q36">
         <v>1836693</v>
@@ -3139,37 +3139,37 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.906427391834393</v>
+        <v>0.978039577391329</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.921348314606742</v>
+        <v>0.910112359550562</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2.005</v>
+        <v>1.99</v>
       </c>
       <c r="K37">
-        <v>-0.036046755911667</v>
+        <v>-0.0546871565934066</v>
       </c>
       <c r="L37">
-        <v>-0.07600118471338339</v>
+        <v>-0.0872941568694635</v>
       </c>
       <c r="M37">
-        <v>0.0073480287644049</v>
+        <v>-0.0127953528370898</v>
       </c>
       <c r="N37">
-        <v>-1.79784318761431</v>
+        <v>-2.74809832127671</v>
       </c>
       <c r="O37" t="s">
         <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="Q37">
         <v>1836693</v>
@@ -3198,49 +3198,49 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F38">
-        <v>0.110335680959923</v>
+        <v>0.404356620754816</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.5739644970414201</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J38">
-        <v>0.438</v>
+        <v>1.7</v>
       </c>
       <c r="K38">
-        <v>-0.0433077138488265</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>-0.113726399036592</v>
+        <v>-0.0311084692043189</v>
       </c>
       <c r="M38">
-        <v>-0.0072866342345824</v>
+        <v>0.0280878486090524</v>
       </c>
       <c r="N38">
-        <v>-9.88760590155856</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
         <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q38">
         <v>1836693</v>
@@ -3259,6 +3259,9 @@
       </c>
       <c r="V38" t="s">
         <v>60</v>
+      </c>
+      <c r="W38" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3266,49 +3269,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.996560043813307</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.313084112149533</v>
       </c>
       <c r="H39">
+        <v>0.0700934579439252</v>
+      </c>
+      <c r="I39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
-        <v>102.5</v>
+        <v>0.006</v>
       </c>
       <c r="K39">
-        <v>0.08699006054704039</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-6.91368217681097</v>
+        <v>-0.0001141763050953</v>
       </c>
       <c r="M39">
-        <v>5.32008237116434</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0.0848683517532101</v>
+        <v>0</v>
       </c>
       <c r="O39" t="s">
         <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q39">
         <v>1836693</v>
@@ -3327,6 +3330,9 @@
       </c>
       <c r="V39" t="s">
         <v>60</v>
+      </c>
+      <c r="W39" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3334,49 +3340,49 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>39</v>
       </c>
       <c r="F40">
-        <v>0.5</v>
+        <v>0.0013172839018982</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.0047169811320754</v>
       </c>
       <c r="H40">
+        <v>0.7405660377358489</v>
+      </c>
+      <c r="I40">
         <v>1</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
-        <v>5.647</v>
+        <v>165</v>
       </c>
       <c r="K40">
-        <v>-0.0443716251317294</v>
+        <v>6.55260658505699</v>
       </c>
       <c r="L40">
-        <v>-1.80486190272514</v>
+        <v>2.86359681760238</v>
       </c>
       <c r="M40">
-        <v>1.05817498841949</v>
+        <v>10.8685695271278</v>
       </c>
       <c r="N40">
-        <v>-0.785755713329722</v>
+        <v>3.97127671821636</v>
       </c>
       <c r="O40" t="s">
         <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q40">
         <v>1836693</v>
@@ -3395,6 +3401,9 @@
       </c>
       <c r="V40" t="s">
         <v>60</v>
+      </c>
+      <c r="W40" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3402,49 +3411,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F41">
-        <v>0.002103775642746</v>
+        <v>0.481860462442926</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.824390243902439</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.204878048780488</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J41">
-        <v>0.4675</v>
+        <v>0.005</v>
       </c>
       <c r="K41">
-        <v>-0.02922</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>-0.0407293231721627</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-0.0171856414592048</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>-6.25026737967915</v>
+        <v>0</v>
       </c>
       <c r="O41" t="s">
         <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q41">
         <v>1836693</v>
@@ -3463,6 +3472,9 @@
       </c>
       <c r="V41" t="s">
         <v>60</v>
+      </c>
+      <c r="W41" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3470,49 +3482,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>39</v>
       </c>
       <c r="F42">
-        <v>0.141565435331173</v>
+        <v>0.955168441735979</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.0343137254901961</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.78921568627451</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>102.75</v>
+        <v>0.1515</v>
       </c>
       <c r="K42">
-        <v>-0.757780082987552</v>
+        <v>-0.001994085532302</v>
       </c>
       <c r="L42">
-        <v>-2.03105982726799</v>
+        <v>-0.0037101206759841</v>
       </c>
       <c r="M42">
-        <v>0.428242731890745</v>
+        <v>-2.21569676573551E-05</v>
       </c>
       <c r="N42">
-        <v>-0.737498864221462</v>
+        <v>-1.31622807412679</v>
       </c>
       <c r="O42" t="s">
         <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q42">
         <v>1836693</v>
@@ -3531,6 +3543,9 @@
       </c>
       <c r="V42" t="s">
         <v>60</v>
+      </c>
+      <c r="W42" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3538,49 +3553,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>39</v>
       </c>
       <c r="F43">
-        <v>0.141565435331173</v>
+        <v>0.988414224181369</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0.808411214953271</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>6.07</v>
+        <v>0.1675</v>
       </c>
       <c r="K43">
-        <v>-0.0894688571428571</v>
+        <v>-0.002523910482921</v>
       </c>
       <c r="L43">
-        <v>-0.368122625455195</v>
+        <v>-0.0045184264115012</v>
       </c>
       <c r="M43">
-        <v>0.127086325277498</v>
+        <v>-0.0006496457312227</v>
       </c>
       <c r="N43">
-        <v>-1.47395151800424</v>
+        <v>-1.5068122286096</v>
       </c>
       <c r="O43" t="s">
         <v>43</v>
       </c>
       <c r="P43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q43">
         <v>1836693</v>
@@ -3599,6 +3614,9 @@
       </c>
       <c r="V43" t="s">
         <v>60</v>
+      </c>
+      <c r="W43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3606,49 +3624,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>39</v>
       </c>
       <c r="F44">
-        <v>0.136780705862374</v>
+        <v>0.945779782163806</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.897196261682243</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.4655</v>
+        <v>2.005</v>
       </c>
       <c r="K44">
-        <v>-0.0068662310866574</v>
+        <v>-0.0283397991784573</v>
       </c>
       <c r="L44">
-        <v>-0.0212401215453144</v>
+        <v>-0.06554811398386901</v>
       </c>
       <c r="M44">
-        <v>0.0035060076257653</v>
+        <v>0.0004642198160819</v>
       </c>
       <c r="N44">
-        <v>-1.47502278982975</v>
+        <v>-1.41345631812755</v>
       </c>
       <c r="O44" t="s">
         <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q44">
         <v>1836693</v>
@@ -3667,6 +3685,9 @@
       </c>
       <c r="V44" t="s">
         <v>60</v>
+      </c>
+      <c r="W44" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3674,10 +3695,10 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -3686,37 +3707,37 @@
         <v>39</v>
       </c>
       <c r="F45">
-        <v>0.0165627624156039</v>
+        <v>0.5</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>104</v>
+        <v>0.438</v>
       </c>
       <c r="K45">
-        <v>-1.15439317319848</v>
+        <v>-0.0074964473091082</v>
       </c>
       <c r="L45">
-        <v>-1.88532001891786</v>
+        <v>-0.113726399036592</v>
       </c>
       <c r="M45">
-        <v>-0.239783240874967</v>
+        <v>0.0547164459886152</v>
       </c>
       <c r="N45">
-        <v>-1.10999343576777</v>
+        <v>-1.71151765048133</v>
       </c>
       <c r="O45" t="s">
         <v>43</v>
       </c>
       <c r="P45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q45">
         <v>1836693</v>
@@ -3742,10 +3763,10 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -3754,37 +3775,37 @@
         <v>39</v>
       </c>
       <c r="F46">
-        <v>0.12479016573954</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>6.215</v>
+        <v>102.5</v>
       </c>
       <c r="K46">
-        <v>-0.0573794691224269</v>
+        <v>3.82429454084792</v>
       </c>
       <c r="L46">
-        <v>-0.205386033898715</v>
+        <v>-3.08411798405775</v>
       </c>
       <c r="M46">
-        <v>0.0407622711529045</v>
+        <v>5.61784455197831</v>
       </c>
       <c r="N46">
-        <v>-0.923241659250634</v>
+        <v>3.73101906424187</v>
       </c>
       <c r="O46" t="s">
         <v>43</v>
       </c>
       <c r="P46" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="Q46">
         <v>1836693</v>
@@ -3802,6 +3823,482 @@
         <v>59</v>
       </c>
       <c r="V46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>5.647</v>
+      </c>
+      <c r="K47">
+        <v>-0.287387543595024</v>
+      </c>
+      <c r="L47">
+        <v>-1.80486190272514</v>
+      </c>
+      <c r="M47">
+        <v>0.433725859252881</v>
+      </c>
+      <c r="N47">
+        <v>-5.08920743040595</v>
+      </c>
+      <c r="O47" t="s">
+        <v>43</v>
+      </c>
+      <c r="P47" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q47">
+        <v>1836693</v>
+      </c>
+      <c r="R47">
+        <v>5520093</v>
+      </c>
+      <c r="S47" t="s">
+        <v>57</v>
+      </c>
+      <c r="T47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48">
+        <v>0.07620314197837499</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.4675</v>
+      </c>
+      <c r="K48">
+        <v>-0.0168514452473596</v>
+      </c>
+      <c r="L48">
+        <v>-0.0346100685886807</v>
+      </c>
+      <c r="M48">
+        <v>0.0009747749025968</v>
+      </c>
+      <c r="N48">
+        <v>-3.60458721868656</v>
+      </c>
+      <c r="O48" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48">
+        <v>1836693</v>
+      </c>
+      <c r="R48">
+        <v>5520093</v>
+      </c>
+      <c r="S48" t="s">
+        <v>57</v>
+      </c>
+      <c r="T48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49">
+        <v>0.639742606431872</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>102.75</v>
+      </c>
+      <c r="K49">
+        <v>0.471899224806202</v>
+      </c>
+      <c r="L49">
+        <v>-0.90179567783545</v>
+      </c>
+      <c r="M49">
+        <v>1.34376949826896</v>
+      </c>
+      <c r="N49">
+        <v>0.459269318546182</v>
+      </c>
+      <c r="O49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q49">
+        <v>1836693</v>
+      </c>
+      <c r="R49">
+        <v>5520093</v>
+      </c>
+      <c r="S49" t="s">
+        <v>57</v>
+      </c>
+      <c r="T49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50">
+        <v>0.295752518497458</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>5.8235</v>
+      </c>
+      <c r="K50">
+        <v>-0.0605271428571428</v>
+      </c>
+      <c r="L50">
+        <v>-0.284803795848634</v>
+      </c>
+      <c r="M50">
+        <v>0.151639137581257</v>
+      </c>
+      <c r="N50">
+        <v>-1.03936022764906</v>
+      </c>
+      <c r="O50" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50">
+        <v>1836693</v>
+      </c>
+      <c r="R50">
+        <v>5520093</v>
+      </c>
+      <c r="S50" t="s">
+        <v>57</v>
+      </c>
+      <c r="T50" t="s">
+        <v>58</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>0.310345358537677</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.476</v>
+      </c>
+      <c r="K51">
+        <v>-0.0026285983550376</v>
+      </c>
+      <c r="L51">
+        <v>-0.0169062120915653</v>
+      </c>
+      <c r="M51">
+        <v>0.0058076713387471</v>
+      </c>
+      <c r="N51">
+        <v>-0.552226545175986</v>
+      </c>
+      <c r="O51" t="s">
+        <v>43</v>
+      </c>
+      <c r="P51" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q51">
+        <v>1836693</v>
+      </c>
+      <c r="R51">
+        <v>5520093</v>
+      </c>
+      <c r="S51" t="s">
+        <v>57</v>
+      </c>
+      <c r="T51" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>15</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>0.127226263076728</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>104</v>
+      </c>
+      <c r="K52">
+        <v>-0.560887592137592</v>
+      </c>
+      <c r="L52">
+        <v>-1.44184327564356</v>
+      </c>
+      <c r="M52">
+        <v>0.206885748612921</v>
+      </c>
+      <c r="N52">
+        <v>-0.539314992439993</v>
+      </c>
+      <c r="O52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P52" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q52">
+        <v>1836693</v>
+      </c>
+      <c r="R52">
+        <v>5520093</v>
+      </c>
+      <c r="S52" t="s">
+        <v>57</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53">
+        <v>0.090482027791135</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>6.14</v>
+      </c>
+      <c r="K53">
+        <v>-0.0579214959568733</v>
+      </c>
+      <c r="L53">
+        <v>-0.162812552867645</v>
+      </c>
+      <c r="M53">
+        <v>0.0318098512046519</v>
+      </c>
+      <c r="N53">
+        <v>-0.94334683968849</v>
+      </c>
+      <c r="O53" t="s">
+        <v>43</v>
+      </c>
+      <c r="P53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53">
+        <v>1836693</v>
+      </c>
+      <c r="R53">
+        <v>5520093</v>
+      </c>
+      <c r="S53" t="s">
+        <v>57</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
         <v>60</v>
       </c>
     </row>
